--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ngf-Sort1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ngf-Sort1.xlsx
@@ -531,52 +531,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.675310456295398</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H2">
-        <v>0.675310456295398</v>
+        <v>2.173961</v>
       </c>
       <c r="I2">
-        <v>0.2154502135649537</v>
+        <v>0.1791272621505297</v>
       </c>
       <c r="J2">
-        <v>0.2154502135649537</v>
+        <v>0.1791272621505298</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50217222572062</v>
+        <v>3.024839333333334</v>
       </c>
       <c r="N2">
-        <v>1.50217222572062</v>
+        <v>9.074518000000001</v>
       </c>
       <c r="O2">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970389</v>
       </c>
       <c r="P2">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970388</v>
       </c>
       <c r="Q2">
-        <v>1.014432611185665</v>
+        <v>2.191960913977556</v>
       </c>
       <c r="R2">
-        <v>1.014432611185665</v>
+        <v>19.72764822579801</v>
       </c>
       <c r="S2">
-        <v>0.023554356864968</v>
+        <v>0.03226991927318089</v>
       </c>
       <c r="T2">
-        <v>0.023554356864968</v>
+        <v>0.03226991927318089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.675310456295398</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H3">
-        <v>0.675310456295398</v>
+        <v>2.173961</v>
       </c>
       <c r="I3">
-        <v>0.2154502135649537</v>
+        <v>0.1791272621505297</v>
       </c>
       <c r="J3">
-        <v>0.2154502135649537</v>
+        <v>0.1791272621505298</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60779792558486</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N3">
-        <v>1.60779792558486</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O3">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501936</v>
       </c>
       <c r="P3">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501934</v>
       </c>
       <c r="Q3">
-        <v>1.085762750757506</v>
+        <v>1.178388555064555</v>
       </c>
       <c r="R3">
-        <v>1.085762750757506</v>
+        <v>10.605496995581</v>
       </c>
       <c r="S3">
-        <v>0.02521058867788198</v>
+        <v>0.01734816679526013</v>
       </c>
       <c r="T3">
-        <v>0.02521058867788198</v>
+        <v>0.01734816679526013</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.675310456295398</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H4">
-        <v>0.675310456295398</v>
+        <v>2.173961</v>
       </c>
       <c r="I4">
-        <v>0.2154502135649537</v>
+        <v>0.1791272621505297</v>
       </c>
       <c r="J4">
-        <v>0.2154502135649537</v>
+        <v>0.1791272621505298</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.96185002310328</v>
+        <v>4.640628666666666</v>
       </c>
       <c r="N4">
-        <v>3.96185002310328</v>
+        <v>13.921886</v>
       </c>
       <c r="O4">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921178</v>
       </c>
       <c r="P4">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921177</v>
       </c>
       <c r="Q4">
-        <v>2.675478746875809</v>
+        <v>3.362848578938444</v>
       </c>
       <c r="R4">
-        <v>2.675478746875809</v>
+        <v>30.265637210446</v>
       </c>
       <c r="S4">
-        <v>0.06212259000121611</v>
+        <v>0.04950765840680763</v>
       </c>
       <c r="T4">
-        <v>0.06212259000121611</v>
+        <v>0.04950765840680763</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.675310456295398</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H5">
-        <v>0.675310456295398</v>
+        <v>2.173961</v>
       </c>
       <c r="I5">
-        <v>0.2154502135649537</v>
+        <v>0.1791272621505297</v>
       </c>
       <c r="J5">
-        <v>0.2154502135649537</v>
+        <v>0.1791272621505298</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.6684542341954</v>
+        <v>7.498988000000001</v>
       </c>
       <c r="N5">
-        <v>6.6684542341954</v>
+        <v>22.496964</v>
       </c>
       <c r="O5">
-        <v>0.4853217654823264</v>
+        <v>0.4466183243958241</v>
       </c>
       <c r="P5">
-        <v>0.4853217654823264</v>
+        <v>0.446618324395824</v>
       </c>
       <c r="Q5">
-        <v>4.503276871679474</v>
+        <v>5.434169150489335</v>
       </c>
       <c r="R5">
-        <v>4.503276871679474</v>
+        <v>48.90752235440401</v>
       </c>
       <c r="S5">
-        <v>0.1045626780208876</v>
+        <v>0.0800015176752811</v>
       </c>
       <c r="T5">
-        <v>0.1045626780208876</v>
+        <v>0.0800015176752811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.45910489248218</v>
+        <v>3.320814666666667</v>
       </c>
       <c r="H6">
-        <v>2.45910489248218</v>
+        <v>9.962444</v>
       </c>
       <c r="I6">
-        <v>0.7845497864350464</v>
+        <v>0.8208727378494701</v>
       </c>
       <c r="J6">
-        <v>0.7845497864350464</v>
+        <v>0.8208727378494702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.50217222572062</v>
+        <v>3.024839333333334</v>
       </c>
       <c r="N6">
-        <v>1.50217222572062</v>
+        <v>9.074518000000001</v>
       </c>
       <c r="O6">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970389</v>
       </c>
       <c r="P6">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970388</v>
       </c>
       <c r="Q6">
-        <v>3.693999069620423</v>
+        <v>10.04493082244356</v>
       </c>
       <c r="R6">
-        <v>3.693999069620423</v>
+        <v>90.40437740199201</v>
       </c>
       <c r="S6">
-        <v>0.08577186043240709</v>
+        <v>0.147880879023858</v>
       </c>
       <c r="T6">
-        <v>0.08577186043240709</v>
+        <v>0.147880879023858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.45910489248218</v>
+        <v>3.320814666666667</v>
       </c>
       <c r="H7">
-        <v>2.45910489248218</v>
+        <v>9.962444</v>
       </c>
       <c r="I7">
-        <v>0.7845497864350464</v>
+        <v>0.8208727378494701</v>
       </c>
       <c r="J7">
-        <v>0.7845497864350464</v>
+        <v>0.8208727378494702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.60779792558486</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N7">
-        <v>1.60779792558486</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O7">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501936</v>
       </c>
       <c r="P7">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501934</v>
       </c>
       <c r="Q7">
-        <v>3.953743744928429</v>
+        <v>5.400110668991554</v>
       </c>
       <c r="R7">
-        <v>3.953743744928429</v>
+        <v>48.60099602092399</v>
       </c>
       <c r="S7">
-        <v>0.09180293505335128</v>
+        <v>0.07950011071975922</v>
       </c>
       <c r="T7">
-        <v>0.09180293505335128</v>
+        <v>0.07950011071975921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.45910489248218</v>
+        <v>3.320814666666667</v>
       </c>
       <c r="H8">
-        <v>2.45910489248218</v>
+        <v>9.962444</v>
       </c>
       <c r="I8">
-        <v>0.7845497864350464</v>
+        <v>0.8208727378494701</v>
       </c>
       <c r="J8">
-        <v>0.7845497864350464</v>
+        <v>0.8208727378494702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.96185002310328</v>
+        <v>4.640628666666666</v>
       </c>
       <c r="N8">
-        <v>3.96185002310328</v>
+        <v>13.921886</v>
       </c>
       <c r="O8">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921178</v>
       </c>
       <c r="P8">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921177</v>
       </c>
       <c r="Q8">
-        <v>9.742604775093914</v>
+        <v>15.41066773882044</v>
       </c>
       <c r="R8">
-        <v>9.742604775093914</v>
+        <v>138.696009649384</v>
       </c>
       <c r="S8">
-        <v>0.2262159034878491</v>
+        <v>0.2268749413853101</v>
       </c>
       <c r="T8">
-        <v>0.2262159034878491</v>
+        <v>0.2268749413853101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.45910489248218</v>
+        <v>3.320814666666667</v>
       </c>
       <c r="H9">
-        <v>2.45910489248218</v>
+        <v>9.962444</v>
       </c>
       <c r="I9">
-        <v>0.7845497864350464</v>
+        <v>0.8208727378494701</v>
       </c>
       <c r="J9">
-        <v>0.7845497864350464</v>
+        <v>0.8208727378494702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.6684542341954</v>
+        <v>7.498988000000001</v>
       </c>
       <c r="N9">
-        <v>6.6684542341954</v>
+        <v>22.496964</v>
       </c>
       <c r="O9">
-        <v>0.4853217654823264</v>
+        <v>0.4466183243958241</v>
       </c>
       <c r="P9">
-        <v>0.4853217654823264</v>
+        <v>0.446618324395824</v>
       </c>
       <c r="Q9">
-        <v>16.39842843260342</v>
+        <v>24.90274933555733</v>
       </c>
       <c r="R9">
-        <v>16.39842843260342</v>
+        <v>224.124744020016</v>
       </c>
       <c r="S9">
-        <v>0.3807590874614388</v>
+        <v>0.3666168067205429</v>
       </c>
       <c r="T9">
-        <v>0.3807590874614388</v>
+        <v>0.3666168067205429</v>
       </c>
     </row>
   </sheetData>
